--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/22_Çanakkale_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/22_Çanakkale_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092CE968-D023-4213-A904-DF9DB9E3800A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{396151F7-371D-4AC6-BE72-512B51BEA600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{F60E7D36-7103-400C-8A41-BA0DE27D7C1D}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{6E425D98-80AF-491D-87D5-0D6F66E6BBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4583C5CD-52A2-46B1-ADB0-2062ECF4FFCB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{355225EA-5557-437B-887C-72C5510F8876}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{6D4E6981-DDCA-430F-8F22-99E0C045909A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4D886B01-3926-4204-864C-482B04C67BBF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0DBA6197-0A21-4F1E-B289-8FA92DFDA3B3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DB73C15E-E781-490F-A744-9CEBA1754B2E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{60EBA682-4B9F-42D9-A9EC-3E9D4546C442}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BA9AED79-BD5E-44D0-8B82-7DF01CAB7EA2}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{84F52772-5C99-4E9B-AB6F-68FFFE9E1F28}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CAE76223-D5A5-440A-90AD-C0A12DDD833A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8902F1E5-53AE-4919-9F9D-B5358CDCF41D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5D918DFD-8CBB-40BE-9173-A54E0D7D5A88}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{EC755C17-1F50-4272-8D41-69CC1714690A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{50C18657-4829-4B03-805B-6BC14408A421}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F1344B-ECEE-4C41-A535-7C6CD7A49E6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF91D3D7-695F-4862-BBD5-7C5789BBEF11}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A1E2CB8-23C7-497E-8FA9-F149FF1B59D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA452856-CBCC-4FE1-ACFD-D005C65F86E7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{058042B8-4049-44C7-90FD-1175D4930337}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D067CE73-44E2-4A7A-A2A9-03D1D7FE97E9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{325FDDF4-0D65-4052-81B6-8763BCE41FE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28592E75-3872-4319-818F-F9DAE1254800}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A21A75A5-542D-4D71-A651-7D4CEA8F5AF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73E0215A-235E-4CD6-8446-E10BEBA1A3DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62A5E5B9-210F-4567-8039-BA1FDFE41F2C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{74A6F2A8-7242-45A4-B489-938C7426062B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2827C230-5262-4003-A800-FDFB522C5F17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C58DF465-2C6E-4D36-A073-A4625A952481}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{968FA702-8984-497D-A7FC-1529F7141408}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD718EEC-819F-43C2-B835-68D415F91D06}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9881417A-FB38-45D7-987D-CC37ED51944A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15974533-B192-439E-9DAB-E4A95248B2CC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D9B36DF4-B3FF-458A-8DD1-1A20B5E9F440}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BD330DB-5A07-47FD-8C80-363AE7465F64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F6DA348-5E6C-481C-8858-FDAB1C0F2E9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DAA14730-AA20-49A3-B1AC-1F283A665615}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A61C26A-D3B0-4703-B37B-3BBCA4FF25DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60C8335E-18D5-4937-8B59-827ECFDF7285}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A19B158-8B8D-4473-B4E3-B59210322767}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A18D7953-2E63-448B-84CD-40A7ABF4F1BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFCFFDD-2BCC-4814-B843-F33E6983CFCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDC31F4-9C6A-48F8-B02F-32E02F95F966}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3869,18 +3869,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B593905-9805-4135-AD57-8E42CFBDE990}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3D0C74B-6E42-4A1D-87EB-022589B99736}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2AC37096-8332-472A-BF9F-FB8D4C644F62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF65C770-FC31-4160-8EEE-A9146BC03D8F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F4AAC90D-ABFF-48E0-874B-D44B4DC7C41F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2EBE15D1-915F-4F33-9044-CD83B2E87FA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBB0BB91-45CE-4A24-A417-327632DBB7F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98497A14-355A-4CE6-BA27-05D5272FB221}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C513D1AE-225B-44F2-AB49-9FF07A22CB40}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCF2EC93-51A5-45C8-B2FE-9D02F5A57303}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{349CE5F6-C990-4EB2-871E-B0DCAE91CEA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{840DD249-ED73-48F9-BBAE-B481F75DCC8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1953A8EE-74ED-4B29-A4CB-5190AE0D31A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D56BA18C-0941-4ED9-A9F4-A71EA34647F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7BCBF808-B932-4951-B492-C482951CA1A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5DC9A0D8-22D6-4D64-A0F7-0DC21F1E1484}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0ECE5FB9-92DA-432C-9F86-A2A4A375CA8D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F399520C-FE57-416B-B3B8-4506C6CCEFC9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8598B269-8AC3-4074-BCDD-D3A906F0B378}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19400C04-5F97-4843-B03B-91F0F7A593DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91F754F4-60E3-4E98-BECC-F7BB19E84FBE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35F7693F-15E5-4651-AD3A-BBD2BAC3C305}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3183912B-8311-433C-A821-C2FD83372538}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6096AA8E-F5BB-439A-A405-DAB298ABB74F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4E4B2-7D07-4D39-A87D-A46FCEE12D5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E3754C-B008-427F-8D64-094CB5874305}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5142,18 +5142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B0592A4-7377-4CD3-AA41-3476E94B371F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{586C6231-096E-4A82-9563-A8A8E745E375}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA6146C1-EA96-4D03-8BA0-6BBA9E2195F5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7F51A29-7FBF-4C96-A5C3-FFDEC15A10D3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3972C344-6750-4687-93C5-07BA5A5A5404}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E70B129E-F518-4B66-A2D4-3C287E2EFC18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31343D1D-C3D2-477D-9CAC-276B9D16A924}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10DD6DB9-CF9C-4C55-B662-C521B202AD38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED03F729-CD07-4985-AE79-FE8D3C9EDDBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2A9D716-44C3-4687-9B4D-1F7BA438E50A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8084D407-10A2-476A-8CFE-EE838B1DBAD1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{933B5DBB-EAD2-4598-8275-AFD5DA30446C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA9F7A21-5F34-43AC-845F-B485721026CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B4E87BD-D4AB-45F6-8DC8-D5B1B2531D4C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{620813D0-8618-41E7-A534-EFEDAA9BEA9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6DBE5D3A-2D29-4ADF-A76E-B414867253DA}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8F626BF5-2EAE-4801-9482-485F427DC18A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A629B65D-5CE3-42B2-9E1F-E192C6A88B4C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99247FA6-3830-400E-AEE4-778C507C10A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DCA5B9B-6742-4607-A5DC-A73468D55AAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{604B2FC6-FBC1-4FCB-A70D-195A7B980275}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{432B0202-D723-4E50-A0A7-E3D21B1C11FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EC9D247-9B12-45FD-9DA6-30570C6D4FD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21B24D15-3910-44E1-8B8B-4362C21D852B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5166,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904C21E-9025-4BBD-B792-1BF525C6F84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1186AC26-D93D-405B-B198-6FC531DCD547}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6390,18 +6390,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5EE6E3A-22A5-4E07-BC5C-FABF91B44ABA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2777AD3-9C33-44F0-961D-F1D0B9D64FD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{504CE342-CB7A-4A21-A15C-AB48FB5A4704}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{460FD796-A75F-4458-BF1F-2E57A61A0AB6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AC5D71CE-F1F4-44B0-8950-92C919F199F6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1DE1F897-6F45-4F7F-9CFD-4EF4462FBCAC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D06BE9A-79E8-47B9-A3C0-04103274CEC6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB2DA6C7-0CF5-4489-A3DA-19CFECC8C761}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBD30A77-9E6A-4568-9A80-EC66F05C76D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D71E3053-8CF6-4500-BFD8-FCE50293838A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C65BC2D8-D142-4C75-94C9-D5DEAD756813}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4EEE9812-DBA2-4CD4-90B5-1D5023173C63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCFF5F46-A19D-44FE-B2A7-B4A456EE82CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F7C0A64-108A-452E-A4BF-2B11DEDCD967}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E5DF76C-1318-47EB-AC3B-1D5A3B41992A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{623620D5-27EA-4660-AFAB-9ED168758D02}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{90474800-19CC-433A-9A44-9CB1C7D89FCF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DFCFE08-C170-4196-B118-74D2A4C90539}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF6097B1-99B5-41AD-9585-0C3B6C81DA31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B92A671D-91F3-42EC-AB50-84448B90FD43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36C872C7-E62D-49F1-9E85-44A69C33B3E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CE87746-54CD-4942-A8AE-89B88C7DEBB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C084FD3-ECA5-4CDC-B057-F4314D6613F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{613F372F-ADBC-488C-BAF2-077D544F53AF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6414,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885AF6F2-5041-47CB-B079-B2E4EEC69D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DCEF47-1378-4D19-8DBD-9E8878DDFD3C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7675,18 +7675,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52AD0768-B7CF-4852-8B50-BF71D677DF0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B3B4235-F83F-4BC7-8F4E-1B6A6971C0BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C29AD87C-1165-4B04-85D6-8AADC5A2984B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14AB5FD2-E4B0-4E40-82C2-837FDC1C66CA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3E76ECD2-2854-41B5-A1E1-5C675A24C788}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F388AD19-CBBD-4DA8-992E-E9A2B57B25D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9844CEAE-1FCE-485D-BF00-2A8082A12A95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C146F04-8CAB-415C-8F59-41ECBA086447}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FCECE4A-24C0-4D8E-B14A-100245F4FC1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{962D2C70-0D8C-4DDB-8818-C6C992BBB07C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11A7DC51-8BEA-446C-9A38-FC144351FA11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{533A90FE-B9F2-42D7-9E11-65CC2CA27B4E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1840424-9643-438D-B813-76E0F844AA62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EF230BE-F069-400D-AA90-3801495EE37B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1694C0B-804B-49C0-9781-5869DD7E715E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F723343B-6BA3-4832-AE9E-1923E93F7F6D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AB2E9F86-E5B5-451B-ADFA-F229665A269B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0631955-0E35-46BE-A682-B4C7D2D487C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F644F364-F9A9-4367-97B4-970D2DEAE9ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24C3B17F-46C7-4EBF-9348-D4EC931DCD9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4BFF55B-F425-49C1-BC6C-7A426AE9E10E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D9E7939-99A7-40E9-B2B0-C6067D8D171A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F5F7E70-4836-445F-A69B-349A11AD32F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06CDE62B-C00E-480A-A95A-04143141B073}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7699,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6FD784-6108-4CC3-A1B9-9BA3C4EE5FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BD98A7-E5DA-4529-9B0D-4964EDF46F36}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8962,18 +8962,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1E85E44-4A38-43E4-9453-34FDD3C401F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1811888-56E9-41F6-8111-0C7768813B0C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2232D9BB-AE2B-4C0C-89D4-FAFE9BB5E7ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3B500DBA-249D-49E7-A0AF-702AB2E0D32C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D487F59C-16B1-4808-8629-809483487507}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42C6342C-594B-4FEE-86D3-CB97038071E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6EC248F-D8FF-4DA9-A24E-772D26ACB171}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD29F341-E758-42E3-805A-1376362FDFE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5297D41C-90C2-4EC2-9221-D1D8827EED18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D9232A4-34B5-4A74-A152-A965DFE7AF42}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8005021E-9A17-4DC0-B151-01E2D37099D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5BBC4587-40DB-478F-B6E3-AB08C07B70A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44F91D8D-C161-4A0B-990A-E037F9789581}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17954DDD-4EFC-4C42-9DD6-E451D5B352B0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E109F749-0539-4151-BC40-DDB68E806B42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{899053DC-E8E6-4F04-882A-FDFD411C259E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7AFD743E-05A3-4CFF-81F3-6F6B91970BB4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA97CEEB-DFD8-47AA-A965-8E54B48F0E50}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C334C7CF-AF47-4446-A76B-38D0A7D33A1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC8B87A3-335E-4253-8DD6-D4DE9DB97D10}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{713B9FBC-F55A-4049-9892-F545722EF183}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B63C4D37-B049-41D8-85DF-D381CAD3D51D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80720F34-FE12-4BE5-B406-26BC457B2DFB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4110D505-A27E-4CC8-BAAA-41B3F4BC1234}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8986,7 +8986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DB4AAD-7972-4005-A228-9461D27D8825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0392B1-3501-4EF0-ADD7-69243F20518E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10249,18 +10249,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA26C881-33A5-4247-B3E3-23834D99E599}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B6B4F9D-16D6-4C7C-BB99-0C40B59B742F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{178EE154-DAA6-499C-BB19-ECAF699B757F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{606C75ED-2EA8-477B-815C-4984980338B0}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6CD6B813-4D8F-4522-9CA3-B4D7887AF443}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE9F412E-FCAB-4382-9412-4DFB41B34EB5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0F4906B-82F3-47D0-BFD4-085DC4B57D55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EAC2E629-281E-4683-8260-728B7E3DC722}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8F75040-DF24-4FB8-B237-6178195B0365}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C13A91F2-B5FC-4521-B451-AB8E6C0535F8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30315853-E6B3-421A-ABB6-8DBCAC0CB4D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14B35492-D421-4BBD-9D1E-9BCF7632CE3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0870B5E7-3C4E-4F7E-A9C6-A2CC7D6310D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85E40D86-82FF-4C41-A3D7-4B9E2F1AFF40}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB913D98-C53A-4030-91D0-DB338FA78980}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D95BB567-595F-479E-9C6A-62D0E73440B4}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0D89CA5C-F4B9-4875-8024-0AE14CB4B4B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{881A6A74-81E0-44F3-92B3-5E37BAA2B61C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E349CBF4-DE3C-43B9-84E8-914B46DCD3A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{061F43E7-2AA6-467C-A98A-92FB92C667C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44B0AF03-5CD3-46BE-B74C-869AB3CB2BB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A42504C6-9CB2-4549-9DF3-2D219D1BBEF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8E70499-6225-46DA-AC69-93BA4D4AEF49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E1E3160-7C83-4301-8786-4F63B39CD639}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10273,7 +10273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26D2A87-15EE-488E-BB4B-4060D7E6A0C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF938EC3-82E6-45A0-9F11-90A362C52AF5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11536,18 +11536,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BCF1084-D50B-4462-9116-68B8B62A694B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D247E00D-9E8B-4E06-84D7-D03A19E019BB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A1CE241-DEE7-424F-A9AE-13E5FE4056C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3C6AD04-0A4B-4267-B0C0-A4BE98288D06}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{11C9837D-5444-47BC-9DC4-1AF9F46A514D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{838BD9ED-46F1-4734-B39E-467E784B3F49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BF643B8-A878-4192-BEC3-D56F9FCB0E01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB3FCF15-A570-420C-8783-1700E6B585A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{852BA980-7F12-490E-85A7-BFB16785C74B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{747FB30F-B6ED-4681-8040-55FFD981E6F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAFAED1B-B6F0-455A-AAC1-6FC0C9BD1E08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9C75261-28BA-4FAB-85AB-4C9E199EFD97}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{884A6520-DEF2-4461-84C4-4C2B22DAB0F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E5F081F-04D5-498E-877F-89CBF0F9FF13}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E77CE06-AB56-4F9A-99CA-566F7FE81170}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C65542A-6CAC-431A-B01B-F7C7C641C824}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F8904D2B-A64B-4D5C-921F-FD14EB2D69B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD5B8E35-F4DA-43A6-B40F-CFAFDC2F1091}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C3A7B70-A4A2-4E82-BFF9-B564D6AF3636}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D84CC00-33E1-48EF-AC54-209480036481}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AA5BBB9-5096-4A2D-A2A6-E1AC0E5FACF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{304E9A37-3B9C-498B-9E98-FFB21847782B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6316422-AF32-4DD4-AA4D-4DFFEC1B12CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAFB64C4-F46C-4A99-8DD0-A25FD6ACC6BD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11560,7 +11560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089937C1-655A-4A05-A6EA-6454F73987F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2BB486-8202-4727-ABBC-76F626A80387}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12819,18 +12819,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD511572-4EC4-4CFD-BCE1-F44C81E80870}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{652A2584-FCBB-4681-8897-D511AAD00BCC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07F37CED-BC80-4EFE-884F-7C2FFE1158DE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1BA0A414-7FC7-460B-9231-CD9EB1FC3599}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8C9A25FE-36EA-43A3-894B-15C2403AF668}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85564FA0-E993-426D-BF83-FE4030B98528}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E8A8EAD-41D3-4062-8BAB-EDDBED1E0737}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08F49BB8-AB23-4DC0-B6BC-FD64EF12945C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E870D165-5AD9-4844-86E5-F2BF74DF1C7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EB83DA4-97B2-410E-87EF-3FFE8CA9B54E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0FEA157-3E81-4FF6-9EC2-2DEFB0C88366}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23CB0EE7-A0DA-4C20-847E-300FE3B53554}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26A57C6D-67C8-4C92-8A71-070B184D2091}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC3B11D5-FD1C-4D51-9C38-67CB188038C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B067543A-CCB1-4CFF-90DF-1EE636FFA895}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CC81E94-BC7E-4AE4-8CE7-B40418A240E6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BF9CB28F-8D46-4796-AEF5-621F5B115370}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3966855E-39BD-4D12-B2BB-7B30D15683D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1626D85E-1741-4E68-A797-F074E45C7312}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{949EC040-4660-4AF8-A568-4F9669E3FDCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F486A2AA-D472-43FA-A735-97E6C06527E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A142BA6-F1B9-4EF4-9AC8-A1B8BDB13E20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A9F3C37-10A8-4B56-81BF-BFC31767670B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96888373-C8DF-4EAA-A19D-B46CF95B900E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12843,7 +12843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C630B-654D-40E2-8629-E721ED06A9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE46F8E0-DCA5-4616-96D5-242CE80E094C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14102,18 +14102,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7E09C75-3236-4E94-9496-8E74BBAA598C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADA386F1-BEEA-4219-BE66-D8BA8CABE09C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27C1182E-7087-4476-8DDF-9E94F109F701}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{49E64DDE-ED6D-47D9-B368-580C139FBE33}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{09CDA611-74AB-4F74-B192-CBC65EF6D1F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8950A1B5-CF43-4862-A4EF-1458E168CC6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03746731-3C09-4F78-B0E6-57391EA8F3B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3371301E-65EF-46A0-A1F2-0722DA1D6C06}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E42CAA6-BD97-44D6-A080-73BBFB4D997F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC628A1A-F6C3-43EA-8BF0-0DA6B454038F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A80B975-B1D0-4A37-B89E-88A36C0BD925}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{72656E70-A637-4730-9409-91DDAEC8C51D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D648A70F-8B2F-4D8F-ACEC-6037B02BC4B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{373D724D-0845-4A73-941A-B959F9B45DFA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F12AAB49-1A80-4924-B1B8-0487A8AAAEC6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{65161959-3B07-4F4F-9740-57261574C14C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B29A0A4A-E6CB-4023-84B8-F6688BDD8E96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80108837-889B-410F-98FA-0E8E8A19AD1E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01C396BB-275D-4699-A12C-2F2246B84C6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68EF6D54-2BBE-469B-90CE-A0330D7DC2CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B761886-8581-4E2B-B941-01C8CEACD706}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0696B497-7265-4A32-A8C1-9671AE5381A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC391604-821F-4F70-BEE1-63D9B01FE744}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D60895B-B183-4B98-BA09-64BE5C4AFF11}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14126,7 +14126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D428E96C-E38C-4753-B17F-D67830136D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F4BA8A-88FC-4B1B-AD7B-1FD5350A95FC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15387,18 +15387,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33519B3C-E0C5-43B2-87DB-4F909C609F35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68D77BE3-1CD0-4C35-8E19-8B4B798EEF57}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9CB4FB4-4DD3-4ECD-B739-38C398DD2732}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43B0F42C-27A0-438D-BA95-B40284F51106}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F37355DD-055F-4B05-85DC-47950829E073}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E359FEEA-2E24-408A-8303-9E47D88FB958}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F604DCD-DCA0-4F52-804B-7556B1437252}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{70767B78-F9DD-4671-AA37-3FBADDE8C2DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1E61D4E-4881-46F7-8577-0B17CC550938}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E57A441F-FDD2-43B9-85FC-35E1C39CF79D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED042306-BCA6-4D4E-93CD-5E68BFE3C97C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67C5354A-27DC-47B4-BC1E-44FF2EFA1D8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21A69426-795E-472E-9DCD-E9466068A514}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D54DECB-D682-4DC3-88E5-BC93D5660777}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25D5FD9B-1AA6-48A9-9DA2-B30678220979}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7753960-DB28-49BF-B39D-967F73D3C577}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{85A09469-7D34-44DD-8830-DEECA5744DBB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81A6FB57-2E22-4280-A91F-A832ECD07D12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCEC893D-2E2E-43F0-A72F-8F68861B3544}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C73C7E80-C8CA-49D4-8864-85E7EBA2298E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAFAA6D1-9717-4E3B-871A-A8EB526DC9B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB63F4D3-4A19-4506-B8D2-B07C315A442C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82AE02B0-18A2-49C2-8D8B-348CF2504419}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE438AE2-6BA4-4AB4-B0ED-2F4747F1D14D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15411,7 +15411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1865B61-3461-41DF-A49B-7C717801F365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE165A1-833B-4310-B818-F0E2B660D7A4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16672,18 +16672,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EF5F7BA-977E-498C-92AA-1F657CC6D716}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1351475-F75A-4066-B08E-CF14FCF41A37}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{432BE98D-7AE5-4436-9961-60DAAA294DD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{324267BC-FE29-46EF-9C80-4E999D7F8292}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{464D0982-44EC-4BBB-B96F-53DEFAA9A376}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3945E58-5D32-4B7C-8131-BC74B200B7DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91811983-7BE0-424C-A896-AF8A5102BDA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84E956A9-ADCE-4A90-8B77-825F10CD7454}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CACE069-A56F-4A58-ABA6-71F2AAE554BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A3DC21F-93A3-41AD-92F7-9E4C8AE209E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71CED460-9BC5-4B20-8298-BD131E535694}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE73FB51-989B-432F-8DBB-1926FA4AC30B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61C4CBEC-68F6-48F0-AE07-9655E854AFAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE80E9F6-431F-4381-A542-D299F42BE4D3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{111AF7C8-6B8F-487E-9B40-FEBF0B449547}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{576DB218-CBC4-436C-BB2F-BD4B11CA952B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9B76FC1E-3058-4742-AC16-F9E0160821A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E9726B8-549C-4614-82DF-1E81C6E335FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63B40FC7-E0DF-4A32-ACDF-2BB6FA8315B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66094BA9-7EEC-4553-9320-B7A530E13952}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{605E5AB0-E519-4538-92B8-2B41A0080684}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9CD14CC-9B54-4C43-967C-BDA9E7DB19CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8F4008E-F117-482E-B717-D624472CFE7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9596914F-43AD-4D66-97CC-03347E4C4CD9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
